--- a/Code/Inputs/Power_curve.xlsx
+++ b/Code/Inputs/Power_curve.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ivans\Desktop\TESI\Supply\Python codes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ivans\Desktop\TESI\MicroGridsPy-SESAM-MYCE\Code\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AC43160-5C1A-4FCC-BA5F-D4E0DC2684D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6489B7CA-571D-4470-B3E4-17E3860A7DC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{583D8F24-B3C1-4AD9-AD31-0D39345084B6}"/>
   </bookViews>
@@ -75,7 +75,7 @@
     <t>&lt;-- Fill in with turbine data according to the example in col. B</t>
   </si>
   <si>
-    <t>Enercon.E40.500</t>
+    <t>Bonus.B23.150</t>
   </si>
 </sst>
 </file>
@@ -184,7 +184,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
@@ -205,12 +205,14 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -534,7 +536,7 @@
   <dimension ref="A1:D93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C47" sqref="C47"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -552,48 +554,48 @@
       <c r="B1" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="20" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="16">
+      <c r="B2" s="15">
         <v>1670</v>
       </c>
       <c r="C2" s="17">
-        <v>500</v>
-      </c>
-      <c r="D2" s="19"/>
+        <v>150</v>
+      </c>
+      <c r="D2" s="21"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="16">
+      <c r="B3" s="15">
         <v>80</v>
       </c>
       <c r="C3" s="17">
+        <v>23</v>
+      </c>
+      <c r="D3" s="21"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="15">
+        <v>80</v>
+      </c>
+      <c r="C4" s="18">
         <v>40</v>
       </c>
-      <c r="D3" s="19"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="16">
-        <v>80</v>
-      </c>
-      <c r="C4" s="17">
-        <v>65</v>
-      </c>
-      <c r="D4" s="19"/>
+      <c r="D4" s="21"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
@@ -602,7 +604,8 @@
       <c r="B5" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="19"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="21"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
@@ -614,7 +617,7 @@
       <c r="C6">
         <v>0</v>
       </c>
-      <c r="D6" s="19"/>
+      <c r="D6" s="21"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
@@ -626,7 +629,7 @@
       <c r="C7">
         <v>0</v>
       </c>
-      <c r="D7" s="19"/>
+      <c r="D7" s="21"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
@@ -638,7 +641,7 @@
       <c r="C8">
         <v>0</v>
       </c>
-      <c r="D8" s="19"/>
+      <c r="D8" s="21"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
@@ -648,9 +651,9 @@
         <v>2.5049999999999999</v>
       </c>
       <c r="C9">
-        <v>4.2779980989999995</v>
-      </c>
-      <c r="D9" s="19"/>
+        <v>0</v>
+      </c>
+      <c r="D9" s="21"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
@@ -660,9 +663,9 @@
         <v>39.244999999999997</v>
       </c>
       <c r="C10">
-        <v>19.239286480000001</v>
-      </c>
-      <c r="D10" s="19"/>
+        <v>1.851851851851855</v>
+      </c>
+      <c r="D10" s="21"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
@@ -672,9 +675,9 @@
         <v>107.715</v>
       </c>
       <c r="C11">
-        <v>40.39</v>
-      </c>
-      <c r="D11" s="19"/>
+        <v>10.623781676413261</v>
+      </c>
+      <c r="D11" s="21"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
@@ -684,9 +687,9 @@
         <v>211.255</v>
       </c>
       <c r="C12">
-        <v>69.36</v>
-      </c>
-      <c r="D12" s="19"/>
+        <v>21.929824561403549</v>
+      </c>
+      <c r="D12" s="21"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
@@ -696,9 +699,9 @@
         <v>354.03999999999996</v>
       </c>
       <c r="C13">
-        <v>112.19</v>
-      </c>
-      <c r="D13" s="19"/>
+        <v>34.795321637426852</v>
+      </c>
+      <c r="D13" s="21"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
@@ -708,9 +711,9 @@
         <v>543.58500000000004</v>
       </c>
       <c r="C14">
-        <v>164.7683117</v>
-      </c>
-      <c r="D14" s="19"/>
+        <v>57.017543859649052</v>
+      </c>
+      <c r="D14" s="21"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
@@ -720,9 +723,9 @@
         <v>787.40499999999997</v>
       </c>
       <c r="C15">
-        <v>236.89</v>
-      </c>
-      <c r="D15" s="19"/>
+        <v>81.481481481481495</v>
+      </c>
+      <c r="D15" s="21"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
@@ -732,9 +735,9 @@
         <v>1063.79</v>
       </c>
       <c r="C16">
-        <v>326.31443899999999</v>
-      </c>
-      <c r="D16" s="19"/>
+        <v>106.53021442495125</v>
+      </c>
+      <c r="D16" s="21"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
@@ -744,9 +747,9 @@
         <v>1342.68</v>
       </c>
       <c r="C17">
-        <v>398.82312199999996</v>
-      </c>
-      <c r="D17" s="19"/>
+        <v>127.68031189083825</v>
+      </c>
+      <c r="D17" s="21"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
@@ -756,9 +759,9 @@
         <v>1558.1100000000001</v>
       </c>
       <c r="C18">
-        <v>465.15000000000003</v>
-      </c>
-      <c r="D18" s="19"/>
+        <v>142.30019493177392</v>
+      </c>
+      <c r="D18" s="21"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
@@ -768,9 +771,9 @@
         <v>1652.4650000000001</v>
       </c>
       <c r="C19">
-        <v>495.77784300000002</v>
-      </c>
-      <c r="D19" s="19"/>
+        <v>149.90253411306045</v>
+      </c>
+      <c r="D19" s="21"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
@@ -780,9 +783,9 @@
         <v>1670</v>
       </c>
       <c r="C20">
-        <v>500</v>
-      </c>
-      <c r="D20" s="19"/>
+        <v>150</v>
+      </c>
+      <c r="D20" s="21"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
@@ -792,9 +795,9 @@
         <v>1670</v>
       </c>
       <c r="C21">
-        <v>500</v>
-      </c>
-      <c r="D21" s="19"/>
+        <v>144.83430799220267</v>
+      </c>
+      <c r="D21" s="21"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
@@ -804,9 +807,9 @@
         <v>1670</v>
       </c>
       <c r="C22">
-        <v>500</v>
-      </c>
-      <c r="D22" s="19"/>
+        <v>136.1598440545809</v>
+      </c>
+      <c r="D22" s="21"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
@@ -816,9 +819,9 @@
         <v>1670</v>
       </c>
       <c r="C23">
-        <v>500</v>
-      </c>
-      <c r="D23" s="19"/>
+        <v>127.58284600389871</v>
+      </c>
+      <c r="D23" s="21"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
@@ -828,9 +831,9 @@
         <v>1648.29</v>
       </c>
       <c r="C24">
-        <v>500</v>
-      </c>
-      <c r="D24" s="19"/>
+        <v>121.24756335282646</v>
+      </c>
+      <c r="D24" s="21"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
@@ -840,9 +843,9 @@
         <v>1596.52</v>
       </c>
       <c r="C25">
-        <v>500</v>
-      </c>
-      <c r="D25" s="19"/>
+        <v>117.44639376218325</v>
+      </c>
+      <c r="D25" s="21"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
@@ -852,9 +855,9 @@
         <v>1547.2549999999999</v>
       </c>
       <c r="C26">
-        <v>500</v>
-      </c>
-      <c r="D26" s="19"/>
+        <v>115.6920077972709</v>
+      </c>
+      <c r="D26" s="21"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
@@ -864,9 +867,9 @@
         <v>1498.825</v>
       </c>
       <c r="C27">
-        <v>500</v>
-      </c>
-      <c r="D27" s="19"/>
+        <v>115.20467836257315</v>
+      </c>
+      <c r="D27" s="21"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
@@ -876,9 +879,9 @@
         <v>1449.56</v>
       </c>
       <c r="C28">
-        <v>500</v>
-      </c>
-      <c r="D28" s="19"/>
+        <v>114.71734892787525</v>
+      </c>
+      <c r="D28" s="21"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
@@ -888,9 +891,9 @@
         <v>1400.2950000000001</v>
       </c>
       <c r="C29">
-        <v>500</v>
-      </c>
-      <c r="D29" s="19"/>
+        <v>114.52241715399616</v>
+      </c>
+      <c r="D29" s="21"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
@@ -900,9 +903,9 @@
         <v>1351.865</v>
       </c>
       <c r="C30">
-        <v>500</v>
-      </c>
-      <c r="D30" s="19"/>
+        <v>114.42495126705646</v>
+      </c>
+      <c r="D30" s="21"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
@@ -912,9 +915,9 @@
         <v>1302.6000000000001</v>
       </c>
       <c r="C31">
-        <v>500</v>
-      </c>
-      <c r="D31" s="19"/>
+        <v>114.52241715399616</v>
+      </c>
+      <c r="D31" s="21"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
@@ -926,7 +929,7 @@
       <c r="C32">
         <v>0</v>
       </c>
-      <c r="D32" s="19"/>
+      <c r="D32" s="21"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
@@ -938,7 +941,7 @@
       <c r="C33">
         <v>0</v>
       </c>
-      <c r="D33" s="19"/>
+      <c r="D33" s="21"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
@@ -950,7 +953,7 @@
       <c r="C34">
         <v>0</v>
       </c>
-      <c r="D34" s="19"/>
+      <c r="D34" s="21"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
@@ -962,7 +965,7 @@
       <c r="C35">
         <v>0</v>
       </c>
-      <c r="D35" s="19"/>
+      <c r="D35" s="21"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
@@ -974,7 +977,7 @@
       <c r="C36">
         <v>0</v>
       </c>
-      <c r="D36" s="19"/>
+      <c r="D36" s="21"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
@@ -986,7 +989,7 @@
       <c r="C37">
         <v>0</v>
       </c>
-      <c r="D37" s="19"/>
+      <c r="D37" s="21"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
@@ -998,7 +1001,7 @@
       <c r="C38">
         <v>0</v>
       </c>
-      <c r="D38" s="19"/>
+      <c r="D38" s="21"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
@@ -1010,7 +1013,7 @@
       <c r="C39">
         <v>0</v>
       </c>
-      <c r="D39" s="19"/>
+      <c r="D39" s="21"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
@@ -1022,7 +1025,7 @@
       <c r="C40">
         <v>0</v>
       </c>
-      <c r="D40" s="19"/>
+      <c r="D40" s="21"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
@@ -1034,7 +1037,7 @@
       <c r="C41">
         <v>0</v>
       </c>
-      <c r="D41" s="19"/>
+      <c r="D41" s="21"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
@@ -1046,7 +1049,7 @@
       <c r="C42">
         <v>0</v>
       </c>
-      <c r="D42" s="19"/>
+      <c r="D42" s="21"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
@@ -1058,7 +1061,7 @@
       <c r="C43">
         <v>0</v>
       </c>
-      <c r="D43" s="19"/>
+      <c r="D43" s="21"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
@@ -1070,7 +1073,7 @@
       <c r="C44">
         <v>0</v>
       </c>
-      <c r="D44" s="19"/>
+      <c r="D44" s="21"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
@@ -1082,7 +1085,7 @@
       <c r="C45">
         <v>0</v>
       </c>
-      <c r="D45" s="19"/>
+      <c r="D45" s="21"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
@@ -1094,7 +1097,7 @@
       <c r="C46">
         <v>0</v>
       </c>
-      <c r="D46" s="19"/>
+      <c r="D46" s="21"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="9"/>
@@ -1111,7 +1114,7 @@
       <c r="C48" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D48" s="18" t="s">
+      <c r="D48" s="20" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1125,7 +1128,7 @@
       <c r="C49">
         <v>0.7</v>
       </c>
-      <c r="D49" s="19"/>
+      <c r="D49" s="21"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
@@ -1137,7 +1140,7 @@
       <c r="C50" s="5">
         <v>1.93</v>
       </c>
-      <c r="D50" s="19"/>
+      <c r="D50" s="21"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
@@ -1149,7 +1152,7 @@
       <c r="C51" s="7">
         <v>1.6</v>
       </c>
-      <c r="D51" s="19"/>
+      <c r="D51" s="21"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
@@ -1158,7 +1161,7 @@
       <c r="B52" t="s">
         <v>7</v>
       </c>
-      <c r="D52" s="19"/>
+      <c r="D52" s="21"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
@@ -1170,7 +1173,7 @@
       <c r="C53">
         <v>0</v>
       </c>
-      <c r="D53" s="19"/>
+      <c r="D53" s="21"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
@@ -1182,7 +1185,7 @@
       <c r="C54">
         <v>0</v>
       </c>
-      <c r="D54" s="19"/>
+      <c r="D54" s="21"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
@@ -1194,7 +1197,7 @@
       <c r="C55">
         <v>0</v>
       </c>
-      <c r="D55" s="19"/>
+      <c r="D55" s="21"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
@@ -1206,7 +1209,7 @@
       <c r="C56">
         <v>0.03</v>
       </c>
-      <c r="D56" s="19"/>
+      <c r="D56" s="21"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
@@ -1218,7 +1221,7 @@
       <c r="C57">
         <v>0.06</v>
       </c>
-      <c r="D57" s="19"/>
+      <c r="D57" s="21"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
@@ -1230,7 +1233,7 @@
       <c r="C58">
         <v>0.08</v>
       </c>
-      <c r="D58" s="19"/>
+      <c r="D58" s="21"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
@@ -1242,7 +1245,7 @@
       <c r="C59">
         <v>0.13</v>
       </c>
-      <c r="D59" s="19"/>
+      <c r="D59" s="21"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
@@ -1254,7 +1257,7 @@
       <c r="C60">
         <v>0.19</v>
       </c>
-      <c r="D60" s="19"/>
+      <c r="D60" s="21"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
@@ -1266,7 +1269,7 @@
       <c r="C61">
         <v>0.26</v>
       </c>
-      <c r="D61" s="19"/>
+      <c r="D61" s="21"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
@@ -1278,7 +1281,7 @@
       <c r="C62">
         <v>0.35</v>
       </c>
-      <c r="D62" s="19"/>
+      <c r="D62" s="21"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
@@ -1290,7 +1293,7 @@
       <c r="C63">
         <v>0.46</v>
       </c>
-      <c r="D63" s="19"/>
+      <c r="D63" s="21"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
@@ -1302,7 +1305,7 @@
       <c r="C64">
         <v>0.6</v>
       </c>
-      <c r="D64" s="19"/>
+      <c r="D64" s="21"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
@@ -1314,7 +1317,7 @@
       <c r="C65">
         <v>0.7</v>
       </c>
-      <c r="D65" s="19"/>
+      <c r="D65" s="21"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
@@ -1326,7 +1329,7 @@
       <c r="C66">
         <v>0.7</v>
       </c>
-      <c r="D66" s="19"/>
+      <c r="D66" s="21"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
@@ -1338,7 +1341,7 @@
       <c r="C67">
         <v>0.7</v>
       </c>
-      <c r="D67" s="19"/>
+      <c r="D67" s="21"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
@@ -1350,7 +1353,7 @@
       <c r="C68">
         <v>0.7</v>
       </c>
-      <c r="D68" s="19"/>
+      <c r="D68" s="21"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
@@ -1362,7 +1365,7 @@
       <c r="C69">
         <v>0</v>
       </c>
-      <c r="D69" s="19"/>
+      <c r="D69" s="21"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
@@ -1374,7 +1377,7 @@
       <c r="C70">
         <v>0</v>
       </c>
-      <c r="D70" s="19"/>
+      <c r="D70" s="21"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
@@ -1386,7 +1389,7 @@
       <c r="C71">
         <v>0</v>
       </c>
-      <c r="D71" s="19"/>
+      <c r="D71" s="21"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
@@ -1398,7 +1401,7 @@
       <c r="C72">
         <v>0</v>
       </c>
-      <c r="D72" s="19"/>
+      <c r="D72" s="21"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
@@ -1410,7 +1413,7 @@
       <c r="C73">
         <v>0</v>
       </c>
-      <c r="D73" s="19"/>
+      <c r="D73" s="21"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
@@ -1422,7 +1425,7 @@
       <c r="C74">
         <v>0</v>
       </c>
-      <c r="D74" s="19"/>
+      <c r="D74" s="21"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
@@ -1434,7 +1437,7 @@
       <c r="C75">
         <v>0</v>
       </c>
-      <c r="D75" s="19"/>
+      <c r="D75" s="21"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
@@ -1446,7 +1449,7 @@
       <c r="C76">
         <v>0</v>
       </c>
-      <c r="D76" s="19"/>
+      <c r="D76" s="21"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
@@ -1458,7 +1461,7 @@
       <c r="C77">
         <v>0</v>
       </c>
-      <c r="D77" s="19"/>
+      <c r="D77" s="21"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
@@ -1470,7 +1473,7 @@
       <c r="C78">
         <v>0</v>
       </c>
-      <c r="D78" s="19"/>
+      <c r="D78" s="21"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
@@ -1482,7 +1485,7 @@
       <c r="C79">
         <v>0</v>
       </c>
-      <c r="D79" s="19"/>
+      <c r="D79" s="21"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
@@ -1494,7 +1497,7 @@
       <c r="C80">
         <v>0</v>
       </c>
-      <c r="D80" s="19"/>
+      <c r="D80" s="21"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
@@ -1506,7 +1509,7 @@
       <c r="C81">
         <v>0</v>
       </c>
-      <c r="D81" s="19"/>
+      <c r="D81" s="21"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
@@ -1518,7 +1521,7 @@
       <c r="C82">
         <v>0</v>
       </c>
-      <c r="D82" s="19"/>
+      <c r="D82" s="21"/>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
@@ -1530,7 +1533,7 @@
       <c r="C83">
         <v>0</v>
       </c>
-      <c r="D83" s="19"/>
+      <c r="D83" s="21"/>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
@@ -1542,7 +1545,7 @@
       <c r="C84">
         <v>0</v>
       </c>
-      <c r="D84" s="19"/>
+      <c r="D84" s="21"/>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
@@ -1554,7 +1557,7 @@
       <c r="C85">
         <v>0</v>
       </c>
-      <c r="D85" s="19"/>
+      <c r="D85" s="21"/>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
@@ -1566,7 +1569,7 @@
       <c r="C86">
         <v>0</v>
       </c>
-      <c r="D86" s="19"/>
+      <c r="D86" s="21"/>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
@@ -1578,7 +1581,7 @@
       <c r="C87">
         <v>0</v>
       </c>
-      <c r="D87" s="19"/>
+      <c r="D87" s="21"/>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
@@ -1590,7 +1593,7 @@
       <c r="C88">
         <v>0</v>
       </c>
-      <c r="D88" s="19"/>
+      <c r="D88" s="21"/>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
@@ -1602,7 +1605,7 @@
       <c r="C89">
         <v>0</v>
       </c>
-      <c r="D89" s="19"/>
+      <c r="D89" s="21"/>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
@@ -1614,7 +1617,7 @@
       <c r="C90">
         <v>0</v>
       </c>
-      <c r="D90" s="19"/>
+      <c r="D90" s="21"/>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
@@ -1626,7 +1629,7 @@
       <c r="C91">
         <v>0</v>
       </c>
-      <c r="D91" s="19"/>
+      <c r="D91" s="21"/>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
@@ -1638,7 +1641,7 @@
       <c r="C92">
         <v>0</v>
       </c>
-      <c r="D92" s="19"/>
+      <c r="D92" s="21"/>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
@@ -1650,7 +1653,7 @@
       <c r="C93">
         <v>0</v>
       </c>
-      <c r="D93" s="19"/>
+      <c r="D93" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Code/Inputs/Power_curve.xlsx
+++ b/Code/Inputs/Power_curve.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ivans\Desktop\TESI\MicroGridsPy-SESAM-MYCE\Code\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6489B7CA-571D-4470-B3E4-17E3860A7DC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{491FBEAA-C514-48E3-A1A3-6709811C4637}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{583D8F24-B3C1-4AD9-AD31-0D39345084B6}"/>
   </bookViews>
@@ -184,7 +184,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
@@ -205,19 +205,17 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -234,6 +232,2851 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mj-lt"/>
+                <a:ea typeface="+mj-ea"/>
+                <a:cs typeface="+mj-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="it-IT"/>
+              <a:t>HAWT Power Curve</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mj-lt"/>
+              <a:ea typeface="+mj-ea"/>
+              <a:cs typeface="+mj-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Alstom.Eco.80 (example)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Foglio1!$A$6:$A$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$B$6:$B$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.5049999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>39.244999999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>107.715</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>211.255</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>354.03999999999996</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>543.58500000000004</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>787.40499999999997</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1063.79</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1342.68</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1558.1100000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1652.4650000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1670</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1670</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1670</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1670</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1648.29</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1596.52</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1547.2549999999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1498.825</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1449.56</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1400.2950000000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1351.865</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1302.6000000000001</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7B7F-4D64-A6DD-77956168C675}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Bonus.B23.150</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Foglio1!$A$6:$A$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$C$6:$C$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.851851851851855</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10.623781676413261</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>21.929824561403549</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>34.795321637426852</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>57.017543859649052</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>81.481481481481495</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>106.53021442495125</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>127.68031189083825</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>142.30019493177392</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>149.90253411306045</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>144.83430799220267</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>136.1598440545809</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>127.58284600389871</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>121.24756335282646</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>117.44639376218325</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>115.6920077972709</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>115.20467836257315</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>114.71734892787525</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>114.52241715399616</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>114.42495126705646</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>114.52241715399616</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-7B7F-4D64-A6DD-77956168C675}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="766530111"/>
+        <c:axId val="766528031"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="766530111"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                  <a:alpha val="54000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                  <a:alpha val="51000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT"/>
+                  <a:t>Wind speed [m/s]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="766528031"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="766528031"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                  <a:alpha val="54000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT"/>
+                  <a:t>Power [kW]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="766530111"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:pattFill prst="ltDnDiag">
+          <a:fgClr>
+            <a:schemeClr val="dk1">
+              <a:lumMod val="15000"/>
+              <a:lumOff val="85000"/>
+            </a:schemeClr>
+          </a:fgClr>
+          <a:bgClr>
+            <a:schemeClr val="lt1"/>
+          </a:bgClr>
+        </a:pattFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mj-lt"/>
+                <a:ea typeface="+mj-ea"/>
+                <a:cs typeface="+mj-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="it-IT"/>
+              <a:t>VAWT Power Curve</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mj-lt"/>
+              <a:ea typeface="+mj-ea"/>
+              <a:cs typeface="+mj-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$B$37</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Hi-VAWT.DS1500</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$B$42:$B$71</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.4999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.6999999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.4999999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.53</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.35</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2797-4B52-B12B-33B395820F4D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$C$37</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Hi-VAWT.DS700</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$C$42:$C$71</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.46</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-2797-4B52-B12B-33B395820F4D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="602661983"/>
+        <c:axId val="602656159"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="602661983"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                  <a:alpha val="54000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                  <a:alpha val="51000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT"/>
+                  <a:t>Wind</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="it-IT" baseline="0"/>
+                  <a:t> Speed [m/s]</a:t>
+                </a:r>
+                <a:endParaRPr lang="it-IT"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="602656159"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="602656159"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                  <a:alpha val="54000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT"/>
+                  <a:t>Power [kW]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="602661983"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:pattFill prst="ltDnDiag">
+          <a:fgClr>
+            <a:schemeClr val="dk1">
+              <a:lumMod val="15000"/>
+              <a:lumOff val="85000"/>
+            </a:schemeClr>
+          </a:fgClr>
+          <a:bgClr>
+            <a:schemeClr val="lt1"/>
+          </a:bgClr>
+        </a:pattFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="232">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="15875">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+            <a:alpha val="51000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="major">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="232">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="15875">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+            <a:alpha val="51000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="major">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Grafico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3508ACA9-2742-43EA-BA28-EEBF23F13C5B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>419099</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>333374</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Grafico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3E942B4-19CC-4D30-AC6D-6609A1BDD7ED}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -533,10 +3376,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0BD5D45-96B0-4B86-9518-8D7C56B645E0}">
-  <dimension ref="A1:D93"/>
+  <dimension ref="A1:D71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J40" sqref="J40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -554,48 +3397,48 @@
       <c r="B1" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="18" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="15">
+      <c r="B2" s="16">
         <v>1670</v>
       </c>
       <c r="C2" s="17">
         <v>150</v>
       </c>
-      <c r="D2" s="21"/>
+      <c r="D2" s="19"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="15">
+      <c r="B3" s="16">
         <v>80</v>
       </c>
       <c r="C3" s="17">
         <v>23</v>
       </c>
-      <c r="D3" s="21"/>
+      <c r="D3" s="19"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="15">
+      <c r="B4" s="16">
         <v>80</v>
       </c>
-      <c r="C4" s="18">
+      <c r="C4" s="17">
         <v>40</v>
       </c>
-      <c r="D4" s="21"/>
+      <c r="D4" s="19"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
@@ -604,8 +3447,7 @@
       <c r="B5" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="19"/>
-      <c r="D5" s="21"/>
+      <c r="D5" s="19"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
@@ -617,7 +3459,7 @@
       <c r="C6">
         <v>0</v>
       </c>
-      <c r="D6" s="21"/>
+      <c r="D6" s="19"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
@@ -629,7 +3471,7 @@
       <c r="C7">
         <v>0</v>
       </c>
-      <c r="D7" s="21"/>
+      <c r="D7" s="19"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
@@ -641,7 +3483,7 @@
       <c r="C8">
         <v>0</v>
       </c>
-      <c r="D8" s="21"/>
+      <c r="D8" s="19"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
@@ -653,7 +3495,7 @@
       <c r="C9">
         <v>0</v>
       </c>
-      <c r="D9" s="21"/>
+      <c r="D9" s="19"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
@@ -665,7 +3507,7 @@
       <c r="C10">
         <v>1.851851851851855</v>
       </c>
-      <c r="D10" s="21"/>
+      <c r="D10" s="19"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
@@ -677,7 +3519,7 @@
       <c r="C11">
         <v>10.623781676413261</v>
       </c>
-      <c r="D11" s="21"/>
+      <c r="D11" s="19"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
@@ -689,7 +3531,7 @@
       <c r="C12">
         <v>21.929824561403549</v>
       </c>
-      <c r="D12" s="21"/>
+      <c r="D12" s="19"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
@@ -701,7 +3543,7 @@
       <c r="C13">
         <v>34.795321637426852</v>
       </c>
-      <c r="D13" s="21"/>
+      <c r="D13" s="19"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
@@ -713,7 +3555,7 @@
       <c r="C14">
         <v>57.017543859649052</v>
       </c>
-      <c r="D14" s="21"/>
+      <c r="D14" s="19"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
@@ -725,7 +3567,7 @@
       <c r="C15">
         <v>81.481481481481495</v>
       </c>
-      <c r="D15" s="21"/>
+      <c r="D15" s="19"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
@@ -737,7 +3579,7 @@
       <c r="C16">
         <v>106.53021442495125</v>
       </c>
-      <c r="D16" s="21"/>
+      <c r="D16" s="19"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
@@ -749,7 +3591,7 @@
       <c r="C17">
         <v>127.68031189083825</v>
       </c>
-      <c r="D17" s="21"/>
+      <c r="D17" s="19"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
@@ -761,7 +3603,7 @@
       <c r="C18">
         <v>142.30019493177392</v>
       </c>
-      <c r="D18" s="21"/>
+      <c r="D18" s="19"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
@@ -773,7 +3615,7 @@
       <c r="C19">
         <v>149.90253411306045</v>
       </c>
-      <c r="D19" s="21"/>
+      <c r="D19" s="19"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
@@ -785,7 +3627,7 @@
       <c r="C20">
         <v>150</v>
       </c>
-      <c r="D20" s="21"/>
+      <c r="D20" s="19"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
@@ -797,7 +3639,7 @@
       <c r="C21">
         <v>144.83430799220267</v>
       </c>
-      <c r="D21" s="21"/>
+      <c r="D21" s="19"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
@@ -809,7 +3651,7 @@
       <c r="C22">
         <v>136.1598440545809</v>
       </c>
-      <c r="D22" s="21"/>
+      <c r="D22" s="19"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
@@ -821,7 +3663,7 @@
       <c r="C23">
         <v>127.58284600389871</v>
       </c>
-      <c r="D23" s="21"/>
+      <c r="D23" s="19"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
@@ -833,7 +3675,7 @@
       <c r="C24">
         <v>121.24756335282646</v>
       </c>
-      <c r="D24" s="21"/>
+      <c r="D24" s="19"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
@@ -845,7 +3687,7 @@
       <c r="C25">
         <v>117.44639376218325</v>
       </c>
-      <c r="D25" s="21"/>
+      <c r="D25" s="19"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
@@ -857,7 +3699,7 @@
       <c r="C26">
         <v>115.6920077972709</v>
       </c>
-      <c r="D26" s="21"/>
+      <c r="D26" s="19"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
@@ -869,7 +3711,7 @@
       <c r="C27">
         <v>115.20467836257315</v>
       </c>
-      <c r="D27" s="21"/>
+      <c r="D27" s="19"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
@@ -881,7 +3723,7 @@
       <c r="C28">
         <v>114.71734892787525</v>
       </c>
-      <c r="D28" s="21"/>
+      <c r="D28" s="19"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
@@ -893,7 +3735,7 @@
       <c r="C29">
         <v>114.52241715399616</v>
       </c>
-      <c r="D29" s="21"/>
+      <c r="D29" s="19"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
@@ -905,7 +3747,7 @@
       <c r="C30">
         <v>114.42495126705646</v>
       </c>
-      <c r="D30" s="21"/>
+      <c r="D30" s="19"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
@@ -917,7 +3759,7 @@
       <c r="C31">
         <v>114.52241715399616</v>
       </c>
-      <c r="D31" s="21"/>
+      <c r="D31" s="19"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
@@ -929,7 +3771,7 @@
       <c r="C32">
         <v>0</v>
       </c>
-      <c r="D32" s="21"/>
+      <c r="D32" s="19"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
@@ -941,7 +3783,7 @@
       <c r="C33">
         <v>0</v>
       </c>
-      <c r="D33" s="21"/>
+      <c r="D33" s="19"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
@@ -953,7 +3795,7 @@
       <c r="C34">
         <v>0</v>
       </c>
-      <c r="D34" s="21"/>
+      <c r="D34" s="19"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
@@ -965,83 +3807,78 @@
       <c r="C35">
         <v>0</v>
       </c>
-      <c r="D35" s="21"/>
+      <c r="D35" s="19"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="2">
-        <v>30</v>
-      </c>
-      <c r="B36">
-        <v>0</v>
-      </c>
+      <c r="A36" s="9"/>
+      <c r="B36" s="9"/>
       <c r="C36">
         <v>0</v>
       </c>
-      <c r="D36" s="21"/>
+      <c r="D36" s="10"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="2">
-        <v>31</v>
-      </c>
-      <c r="B37">
-        <v>0</v>
-      </c>
-      <c r="C37">
-        <v>0</v>
-      </c>
-      <c r="D37" s="21"/>
+      <c r="A37" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B37" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C37" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D37" s="18" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="2">
-        <v>32</v>
+      <c r="A38" s="3" t="s">
+        <v>1</v>
       </c>
       <c r="B38">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="C38">
-        <v>0</v>
-      </c>
-      <c r="D38" s="21"/>
+        <v>0.7</v>
+      </c>
+      <c r="D38" s="19"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="2">
-        <v>33</v>
-      </c>
-      <c r="B39">
-        <v>0</v>
-      </c>
-      <c r="C39">
-        <v>0</v>
-      </c>
-      <c r="D39" s="21"/>
+      <c r="A39" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B39" s="5">
+        <v>1.24</v>
+      </c>
+      <c r="C39" s="5">
+        <v>1.93</v>
+      </c>
+      <c r="D39" s="19"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="2">
-        <v>34</v>
-      </c>
-      <c r="B40">
-        <v>0</v>
-      </c>
-      <c r="C40">
-        <v>0</v>
-      </c>
-      <c r="D40" s="21"/>
+      <c r="A40" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B40" s="7">
+        <v>1.06</v>
+      </c>
+      <c r="C40" s="7">
+        <v>1.6</v>
+      </c>
+      <c r="D40" s="19"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="2">
-        <v>35</v>
-      </c>
-      <c r="B41">
-        <v>0</v>
-      </c>
-      <c r="C41">
-        <v>0</v>
-      </c>
-      <c r="D41" s="21"/>
+      <c r="A41" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B41" t="s">
+        <v>7</v>
+      </c>
+      <c r="D41" s="19"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1049,11 +3886,11 @@
       <c r="C42">
         <v>0</v>
       </c>
-      <c r="D42" s="21"/>
+      <c r="D42" s="19"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -1061,11 +3898,11 @@
       <c r="C43">
         <v>0</v>
       </c>
-      <c r="D43" s="21"/>
+      <c r="D43" s="19"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
-        <v>38</v>
+        <v>2</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -1073,291 +3910,299 @@
       <c r="C44">
         <v>0</v>
       </c>
-      <c r="D44" s="21"/>
+      <c r="D44" s="19"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
-        <v>39</v>
+        <v>3</v>
       </c>
       <c r="B45">
-        <v>0</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="C45">
-        <v>0</v>
-      </c>
-      <c r="D45" s="21"/>
+        <v>0.03</v>
+      </c>
+      <c r="D45" s="19"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="B46">
-        <v>0</v>
+        <v>3.6999999999999998E-2</v>
       </c>
       <c r="C46">
-        <v>0</v>
-      </c>
-      <c r="D46" s="21"/>
+        <v>0.06</v>
+      </c>
+      <c r="D46" s="19"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="9"/>
-      <c r="B47" s="9"/>
-      <c r="D47" s="10"/>
+      <c r="A47" s="2">
+        <v>5</v>
+      </c>
+      <c r="B47">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="C47">
+        <v>0.08</v>
+      </c>
+      <c r="D47" s="19"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="B48" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C48" s="12" t="s">
+      <c r="A48" s="2">
+        <v>6</v>
+      </c>
+      <c r="B48">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="C48">
+        <v>0.13</v>
+      </c>
+      <c r="D48" s="19"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="2">
+        <v>7</v>
+      </c>
+      <c r="B49">
+        <v>0.24</v>
+      </c>
+      <c r="C49">
+        <v>0.19</v>
+      </c>
+      <c r="D49" s="19"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="2">
+        <v>8</v>
+      </c>
+      <c r="B50">
+        <v>0.36</v>
+      </c>
+      <c r="C50">
+        <v>0.26</v>
+      </c>
+      <c r="D50" s="19"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="2">
+        <v>9</v>
+      </c>
+      <c r="B51">
+        <v>0.53</v>
+      </c>
+      <c r="C51">
+        <v>0.35</v>
+      </c>
+      <c r="D51" s="19"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="2">
         <v>10</v>
       </c>
-      <c r="D48" s="20" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B49">
-        <v>0.3</v>
-      </c>
-      <c r="C49">
-        <v>0.7</v>
-      </c>
-      <c r="D49" s="21"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B50" s="5">
-        <v>1.24</v>
-      </c>
-      <c r="C50" s="5">
-        <v>1.93</v>
-      </c>
-      <c r="D50" s="21"/>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B51" s="7">
-        <v>1.06</v>
-      </c>
-      <c r="C51" s="7">
-        <v>1.6</v>
-      </c>
-      <c r="D51" s="21"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B52" t="s">
-        <v>7</v>
-      </c>
-      <c r="D52" s="21"/>
+      <c r="B52">
+        <v>0.75</v>
+      </c>
+      <c r="C52">
+        <v>0.46</v>
+      </c>
+      <c r="D52" s="19"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B53">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="C53">
-        <v>0</v>
-      </c>
-      <c r="D53" s="21"/>
+        <v>0.6</v>
+      </c>
+      <c r="D53" s="19"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="B54">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="C54">
-        <v>0</v>
-      </c>
-      <c r="D54" s="21"/>
+        <v>0.7</v>
+      </c>
+      <c r="D54" s="19"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="B55">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="C55">
-        <v>0</v>
-      </c>
-      <c r="D55" s="21"/>
+        <v>0.7</v>
+      </c>
+      <c r="D55" s="19"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="B56">
-        <v>1.4999999999999999E-2</v>
+        <v>1.5</v>
       </c>
       <c r="C56">
-        <v>0.03</v>
-      </c>
-      <c r="D56" s="21"/>
+        <v>0.7</v>
+      </c>
+      <c r="D56" s="19"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="B57">
-        <v>3.6999999999999998E-2</v>
+        <v>1.5</v>
       </c>
       <c r="C57">
-        <v>0.06</v>
-      </c>
-      <c r="D57" s="21"/>
+        <v>0.7</v>
+      </c>
+      <c r="D57" s="19"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B58">
-        <v>7.4999999999999997E-2</v>
+        <v>0</v>
       </c>
       <c r="C58">
-        <v>0.08</v>
-      </c>
-      <c r="D58" s="21"/>
+        <v>0</v>
+      </c>
+      <c r="D58" s="19"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="B59">
-        <v>0.14000000000000001</v>
+        <v>0</v>
       </c>
       <c r="C59">
-        <v>0.13</v>
-      </c>
-      <c r="D59" s="21"/>
+        <v>0</v>
+      </c>
+      <c r="D59" s="19"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="B60">
-        <v>0.24</v>
+        <v>0</v>
       </c>
       <c r="C60">
-        <v>0.19</v>
-      </c>
-      <c r="D60" s="21"/>
+        <v>0</v>
+      </c>
+      <c r="D60" s="19"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="B61">
-        <v>0.36</v>
+        <v>0</v>
       </c>
       <c r="C61">
-        <v>0.26</v>
-      </c>
-      <c r="D61" s="21"/>
+        <v>0</v>
+      </c>
+      <c r="D61" s="19"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="B62">
-        <v>0.53</v>
+        <v>0</v>
       </c>
       <c r="C62">
-        <v>0.35</v>
-      </c>
-      <c r="D62" s="21"/>
+        <v>0</v>
+      </c>
+      <c r="D62" s="19"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="B63">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="C63">
-        <v>0.46</v>
-      </c>
-      <c r="D63" s="21"/>
+        <v>0</v>
+      </c>
+      <c r="D63" s="19"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="B64">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="C64">
-        <v>0.6</v>
-      </c>
-      <c r="D64" s="21"/>
+        <v>0</v>
+      </c>
+      <c r="D64" s="19"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B65">
-        <v>1.35</v>
+        <v>0</v>
       </c>
       <c r="C65">
-        <v>0.7</v>
-      </c>
-      <c r="D65" s="21"/>
+        <v>0</v>
+      </c>
+      <c r="D65" s="19"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="B66">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="C66">
-        <v>0.7</v>
-      </c>
-      <c r="D66" s="21"/>
+        <v>0</v>
+      </c>
+      <c r="D66" s="19"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="B67">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="C67">
-        <v>0.7</v>
-      </c>
-      <c r="D67" s="21"/>
+        <v>0</v>
+      </c>
+      <c r="D67" s="19"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="B68">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="C68">
-        <v>0.7</v>
-      </c>
-      <c r="D68" s="21"/>
+        <v>0</v>
+      </c>
+      <c r="D68" s="19"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -1365,11 +4210,11 @@
       <c r="C69">
         <v>0</v>
       </c>
-      <c r="D69" s="21"/>
+      <c r="D69" s="19"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1377,11 +4222,11 @@
       <c r="C70">
         <v>0</v>
       </c>
-      <c r="D70" s="21"/>
+      <c r="D70" s="19"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -1389,278 +4234,11 @@
       <c r="C71">
         <v>0</v>
       </c>
-      <c r="D71" s="21"/>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="2">
-        <v>19</v>
-      </c>
-      <c r="B72">
-        <v>0</v>
-      </c>
-      <c r="C72">
-        <v>0</v>
-      </c>
-      <c r="D72" s="21"/>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="2">
-        <v>20</v>
-      </c>
-      <c r="B73">
-        <v>0</v>
-      </c>
-      <c r="C73">
-        <v>0</v>
-      </c>
-      <c r="D73" s="21"/>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" s="2">
-        <v>21</v>
-      </c>
-      <c r="B74">
-        <v>0</v>
-      </c>
-      <c r="C74">
-        <v>0</v>
-      </c>
-      <c r="D74" s="21"/>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" s="2">
-        <v>22</v>
-      </c>
-      <c r="B75">
-        <v>0</v>
-      </c>
-      <c r="C75">
-        <v>0</v>
-      </c>
-      <c r="D75" s="21"/>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" s="2">
-        <v>23</v>
-      </c>
-      <c r="B76">
-        <v>0</v>
-      </c>
-      <c r="C76">
-        <v>0</v>
-      </c>
-      <c r="D76" s="21"/>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" s="2">
-        <v>24</v>
-      </c>
-      <c r="B77">
-        <v>0</v>
-      </c>
-      <c r="C77">
-        <v>0</v>
-      </c>
-      <c r="D77" s="21"/>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" s="2">
-        <v>25</v>
-      </c>
-      <c r="B78">
-        <v>0</v>
-      </c>
-      <c r="C78">
-        <v>0</v>
-      </c>
-      <c r="D78" s="21"/>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" s="2">
-        <v>26</v>
-      </c>
-      <c r="B79">
-        <v>0</v>
-      </c>
-      <c r="C79">
-        <v>0</v>
-      </c>
-      <c r="D79" s="21"/>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" s="2">
-        <v>27</v>
-      </c>
-      <c r="B80">
-        <v>0</v>
-      </c>
-      <c r="C80">
-        <v>0</v>
-      </c>
-      <c r="D80" s="21"/>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" s="2">
-        <v>28</v>
-      </c>
-      <c r="B81">
-        <v>0</v>
-      </c>
-      <c r="C81">
-        <v>0</v>
-      </c>
-      <c r="D81" s="21"/>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" s="2">
-        <v>29</v>
-      </c>
-      <c r="B82">
-        <v>0</v>
-      </c>
-      <c r="C82">
-        <v>0</v>
-      </c>
-      <c r="D82" s="21"/>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" s="2">
-        <v>30</v>
-      </c>
-      <c r="B83">
-        <v>0</v>
-      </c>
-      <c r="C83">
-        <v>0</v>
-      </c>
-      <c r="D83" s="21"/>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" s="2">
-        <v>31</v>
-      </c>
-      <c r="B84">
-        <v>0</v>
-      </c>
-      <c r="C84">
-        <v>0</v>
-      </c>
-      <c r="D84" s="21"/>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85" s="2">
-        <v>32</v>
-      </c>
-      <c r="B85">
-        <v>0</v>
-      </c>
-      <c r="C85">
-        <v>0</v>
-      </c>
-      <c r="D85" s="21"/>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86" s="2">
-        <v>33</v>
-      </c>
-      <c r="B86">
-        <v>0</v>
-      </c>
-      <c r="C86">
-        <v>0</v>
-      </c>
-      <c r="D86" s="21"/>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87" s="2">
-        <v>34</v>
-      </c>
-      <c r="B87">
-        <v>0</v>
-      </c>
-      <c r="C87">
-        <v>0</v>
-      </c>
-      <c r="D87" s="21"/>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A88" s="2">
-        <v>35</v>
-      </c>
-      <c r="B88">
-        <v>0</v>
-      </c>
-      <c r="C88">
-        <v>0</v>
-      </c>
-      <c r="D88" s="21"/>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A89" s="2">
-        <v>36</v>
-      </c>
-      <c r="B89">
-        <v>0</v>
-      </c>
-      <c r="C89">
-        <v>0</v>
-      </c>
-      <c r="D89" s="21"/>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90" s="2">
-        <v>37</v>
-      </c>
-      <c r="B90">
-        <v>0</v>
-      </c>
-      <c r="C90">
-        <v>0</v>
-      </c>
-      <c r="D90" s="21"/>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91" s="2">
-        <v>38</v>
-      </c>
-      <c r="B91">
-        <v>0</v>
-      </c>
-      <c r="C91">
-        <v>0</v>
-      </c>
-      <c r="D91" s="21"/>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A92" s="2">
-        <v>39</v>
-      </c>
-      <c r="B92">
-        <v>0</v>
-      </c>
-      <c r="C92">
-        <v>0</v>
-      </c>
-      <c r="D92" s="21"/>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93" s="2">
-        <v>40</v>
-      </c>
-      <c r="B93">
-        <v>0</v>
-      </c>
-      <c r="C93">
-        <v>0</v>
-      </c>
-      <c r="D93" s="21"/>
+      <c r="D71" s="19"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="D1:D46"/>
-    <mergeCell ref="D48:D93"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="42" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Code/Inputs/Power_curve.xlsx
+++ b/Code/Inputs/Power_curve.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ivans\Desktop\TESI\MicroGridsPy-SESAM-MYCE\Code\Inputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ivans\Desktop\TESI\On-grid\MicroGridsPy-OnGrid\One building - National Grid\MicroGridsPy-SESAM-MYCE _to be used\MicroGridsPy-SESAM-MYCE\Code\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{491FBEAA-C514-48E3-A1A3-6709811C4637}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCFB78A5-6E03-41FE-AF1B-3C0B63B106D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{583D8F24-B3C1-4AD9-AD31-0D39345084B6}"/>
   </bookViews>
@@ -75,7 +75,7 @@
     <t>&lt;-- Fill in with turbine data according to the example in col. B</t>
   </si>
   <si>
-    <t>Bonus.B23.150</t>
+    <t>NPS100c-21</t>
   </si>
 </sst>
 </file>
@@ -184,7 +184,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
@@ -193,29 +193,47 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -310,15 +328,15 @@
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="1"/>
+          <c:idx val="2"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Foglio1!$B$1</c:f>
+              <c:f>Foglio1!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Alstom.Eco.80 (example)</c:v>
+                  <c:v>NPS100c-21</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -326,7 +344,7 @@
           <c:spPr>
             <a:ln w="22225" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:srgbClr val="FF0000"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -436,237 +454,6 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$B$6:$B$35</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="30"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.5049999999999999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>39.244999999999997</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>107.715</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>211.255</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>354.03999999999996</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>543.58500000000004</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>787.40499999999997</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1063.79</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1342.68</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1558.1100000000001</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1652.4650000000001</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1670</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1670</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1670</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1670</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1648.29</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1596.52</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1547.2549999999999</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1498.825</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1449.56</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1400.2950000000001</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>1351.865</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>1302.6000000000001</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-7B7F-4D64-A6DD-77956168C675}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Foglio1!$C$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Bonus.B23.150</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="22225" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Foglio1!$A$6:$A$35</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="30"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>29</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
               <c:f>Foglio1!$C$6:$C$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
@@ -681,73 +468,73 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.851851851851855</c:v>
+                  <c:v>4.0999999999999996</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10.623781676413261</c:v>
+                  <c:v>10.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>21.929824561403549</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>34.795321637426852</c:v>
+                  <c:v>29.4</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>57.017543859649052</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>81.481481481481495</c:v>
+                  <c:v>54.3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>106.53021442495125</c:v>
+                  <c:v>66.8</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>127.68031189083825</c:v>
+                  <c:v>77.7</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>142.30019493177392</c:v>
+                  <c:v>86.4</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>149.90253411306045</c:v>
+                  <c:v>92.8</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>150</c:v>
+                  <c:v>97.8</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>144.83430799220267</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>136.1598440545809</c:v>
+                  <c:v>99.9</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>127.58284600389871</c:v>
+                  <c:v>99.2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>121.24756335282646</c:v>
+                  <c:v>98.4</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>117.44639376218325</c:v>
+                  <c:v>97.5</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>115.6920077972709</c:v>
+                  <c:v>96.8</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>115.20467836257315</c:v>
+                  <c:v>96.4</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>114.71734892787525</c:v>
+                  <c:v>96.3</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>114.52241715399616</c:v>
+                  <c:v>96.8</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>114.42495126705646</c:v>
+                  <c:v>98</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>114.52241715399616</c:v>
+                  <c:v>99.2</c:v>
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>0</c:v>
@@ -3007,15 +2794,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>147637</xdr:rowOff>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3378,456 +3165,454 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0BD5D45-96B0-4B86-9518-8D7C56B645E0}">
   <dimension ref="A1:D71"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J40" sqref="J40"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="50" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40" customWidth="1"/>
-    <col min="2" max="2" width="29.140625" customWidth="1"/>
-    <col min="3" max="3" width="33.7109375" customWidth="1"/>
-    <col min="4" max="4" width="56.5703125" customWidth="1"/>
+    <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.28515625" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" customWidth="1"/>
+    <col min="4" max="4" width="56" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="13" t="s">
+      <c r="A1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="12" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="16">
+      <c r="B2" s="18">
         <v>1670</v>
       </c>
-      <c r="C2" s="17">
-        <v>150</v>
-      </c>
-      <c r="D2" s="19"/>
+      <c r="C2" s="19">
+        <v>100</v>
+      </c>
+      <c r="D2" s="13"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="16">
+      <c r="B3" s="18">
         <v>80</v>
       </c>
-      <c r="C3" s="17">
+      <c r="C3" s="19">
+        <v>20.7</v>
+      </c>
+      <c r="D3" s="13"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="18">
+        <v>80</v>
+      </c>
+      <c r="C4" s="19">
+        <v>37</v>
+      </c>
+      <c r="D4" s="13"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="22"/>
+      <c r="D5" s="13"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="23">
+        <v>0</v>
+      </c>
+      <c r="B6" s="22">
+        <v>0</v>
+      </c>
+      <c r="C6" s="22">
+        <v>0</v>
+      </c>
+      <c r="D6" s="13"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="23">
+        <v>1</v>
+      </c>
+      <c r="B7" s="22">
+        <v>0</v>
+      </c>
+      <c r="C7" s="22">
+        <v>0</v>
+      </c>
+      <c r="D7" s="13"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="23">
+        <v>2</v>
+      </c>
+      <c r="B8" s="22">
+        <v>0</v>
+      </c>
+      <c r="C8" s="22">
+        <v>0</v>
+      </c>
+      <c r="D8" s="13"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="23">
+        <v>3</v>
+      </c>
+      <c r="B9" s="22">
+        <v>2.5049999999999999</v>
+      </c>
+      <c r="C9" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="D9" s="13"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="23">
+        <v>4</v>
+      </c>
+      <c r="B10" s="22">
+        <v>39.244999999999997</v>
+      </c>
+      <c r="C10" s="22">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="D10" s="13"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="23">
+        <v>5</v>
+      </c>
+      <c r="B11" s="22">
+        <v>107.715</v>
+      </c>
+      <c r="C11" s="22">
+        <v>10.5</v>
+      </c>
+      <c r="D11" s="13"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="23">
+        <v>6</v>
+      </c>
+      <c r="B12" s="22">
+        <v>211.255</v>
+      </c>
+      <c r="C12" s="22">
+        <v>19</v>
+      </c>
+      <c r="D12" s="13"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="23">
+        <v>7</v>
+      </c>
+      <c r="B13" s="22">
+        <v>354.03999999999996</v>
+      </c>
+      <c r="C13" s="22">
+        <v>29.4</v>
+      </c>
+      <c r="D13" s="13"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="23">
+        <v>8</v>
+      </c>
+      <c r="B14" s="22">
+        <v>543.58500000000004</v>
+      </c>
+      <c r="C14" s="22">
+        <v>41</v>
+      </c>
+      <c r="D14" s="13"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="23">
+        <v>9</v>
+      </c>
+      <c r="B15" s="22">
+        <v>787.40499999999997</v>
+      </c>
+      <c r="C15" s="22">
+        <v>54.3</v>
+      </c>
+      <c r="D15" s="13"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="23">
+        <v>10</v>
+      </c>
+      <c r="B16" s="22">
+        <v>1063.79</v>
+      </c>
+      <c r="C16" s="22">
+        <v>66.8</v>
+      </c>
+      <c r="D16" s="13"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="23">
+        <v>11</v>
+      </c>
+      <c r="B17" s="22">
+        <v>1342.68</v>
+      </c>
+      <c r="C17" s="22">
+        <v>77.7</v>
+      </c>
+      <c r="D17" s="13"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="23">
+        <v>12</v>
+      </c>
+      <c r="B18" s="22">
+        <v>1558.1100000000001</v>
+      </c>
+      <c r="C18" s="22">
+        <v>86.4</v>
+      </c>
+      <c r="D18" s="13"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="23">
+        <v>13</v>
+      </c>
+      <c r="B19" s="22">
+        <v>1652.4650000000001</v>
+      </c>
+      <c r="C19" s="22">
+        <v>92.8</v>
+      </c>
+      <c r="D19" s="13"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="23">
+        <v>14</v>
+      </c>
+      <c r="B20" s="22">
+        <v>1670</v>
+      </c>
+      <c r="C20" s="22">
+        <v>97.8</v>
+      </c>
+      <c r="D20" s="13"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="23">
+        <v>15</v>
+      </c>
+      <c r="B21" s="22">
+        <v>1670</v>
+      </c>
+      <c r="C21" s="22">
+        <v>100</v>
+      </c>
+      <c r="D21" s="13"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="23">
+        <v>16</v>
+      </c>
+      <c r="B22" s="22">
+        <v>1670</v>
+      </c>
+      <c r="C22" s="22">
+        <v>99.9</v>
+      </c>
+      <c r="D22" s="13"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="23">
+        <v>17</v>
+      </c>
+      <c r="B23" s="22">
+        <v>1670</v>
+      </c>
+      <c r="C23" s="22">
+        <v>99.2</v>
+      </c>
+      <c r="D23" s="13"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="23">
+        <v>18</v>
+      </c>
+      <c r="B24" s="22">
+        <v>1648.29</v>
+      </c>
+      <c r="C24" s="22">
+        <v>98.4</v>
+      </c>
+      <c r="D24" s="13"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="23">
+        <v>19</v>
+      </c>
+      <c r="B25" s="22">
+        <v>1596.52</v>
+      </c>
+      <c r="C25" s="22">
+        <v>97.5</v>
+      </c>
+      <c r="D25" s="13"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="23">
+        <v>20</v>
+      </c>
+      <c r="B26" s="22">
+        <v>1547.2549999999999</v>
+      </c>
+      <c r="C26" s="22">
+        <v>96.8</v>
+      </c>
+      <c r="D26" s="13"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="23">
+        <v>21</v>
+      </c>
+      <c r="B27" s="22">
+        <v>1498.825</v>
+      </c>
+      <c r="C27" s="22">
+        <v>96.4</v>
+      </c>
+      <c r="D27" s="13"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="23">
+        <v>22</v>
+      </c>
+      <c r="B28" s="22">
+        <v>1449.56</v>
+      </c>
+      <c r="C28" s="22">
+        <v>96.3</v>
+      </c>
+      <c r="D28" s="13"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="23">
         <v>23</v>
       </c>
-      <c r="D3" s="19"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="16">
-        <v>80</v>
-      </c>
-      <c r="C4" s="17">
-        <v>40</v>
-      </c>
-      <c r="D4" s="19"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="19"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>0</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6" s="19"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
-        <v>1</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7" s="19"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
-        <v>2</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8" s="19"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
-        <v>3</v>
-      </c>
-      <c r="B9">
-        <v>2.5049999999999999</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9" s="19"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
-        <v>4</v>
-      </c>
-      <c r="B10">
-        <v>39.244999999999997</v>
-      </c>
-      <c r="C10">
-        <v>1.851851851851855</v>
-      </c>
-      <c r="D10" s="19"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
+      <c r="B29" s="22">
+        <v>1400.2950000000001</v>
+      </c>
+      <c r="C29" s="22">
+        <v>96.8</v>
+      </c>
+      <c r="D29" s="13"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="23">
+        <v>24</v>
+      </c>
+      <c r="B30" s="22">
+        <v>1351.865</v>
+      </c>
+      <c r="C30" s="22">
+        <v>98</v>
+      </c>
+      <c r="D30" s="13"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="23">
+        <v>25</v>
+      </c>
+      <c r="B31" s="22">
+        <v>1302.6000000000001</v>
+      </c>
+      <c r="C31" s="22">
+        <v>99.2</v>
+      </c>
+      <c r="D31" s="13"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="23">
+        <v>26</v>
+      </c>
+      <c r="B32" s="22">
+        <v>0</v>
+      </c>
+      <c r="C32" s="22">
+        <v>0</v>
+      </c>
+      <c r="D32" s="13"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="23">
+        <v>27</v>
+      </c>
+      <c r="B33" s="22">
+        <v>0</v>
+      </c>
+      <c r="C33" s="22">
+        <v>0</v>
+      </c>
+      <c r="D33" s="13"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="23">
+        <v>28</v>
+      </c>
+      <c r="B34" s="22">
+        <v>0</v>
+      </c>
+      <c r="C34" s="22">
+        <v>0</v>
+      </c>
+      <c r="D34" s="13"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="23">
+        <v>29</v>
+      </c>
+      <c r="B35" s="22">
+        <v>0</v>
+      </c>
+      <c r="C35" s="22">
+        <v>0</v>
+      </c>
+      <c r="D35" s="13"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="8"/>
+      <c r="B36" s="8"/>
+      <c r="D36" s="9"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B11">
-        <v>107.715</v>
-      </c>
-      <c r="C11">
-        <v>10.623781676413261</v>
-      </c>
-      <c r="D11" s="19"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
-        <v>6</v>
-      </c>
-      <c r="B12">
-        <v>211.255</v>
-      </c>
-      <c r="C12">
-        <v>21.929824561403549</v>
-      </c>
-      <c r="D12" s="19"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
-        <v>7</v>
-      </c>
-      <c r="B13">
-        <v>354.03999999999996</v>
-      </c>
-      <c r="C13">
-        <v>34.795321637426852</v>
-      </c>
-      <c r="D13" s="19"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
-        <v>8</v>
-      </c>
-      <c r="B14">
-        <v>543.58500000000004</v>
-      </c>
-      <c r="C14">
-        <v>57.017543859649052</v>
-      </c>
-      <c r="D14" s="19"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
-        <v>9</v>
-      </c>
-      <c r="B15">
-        <v>787.40499999999997</v>
-      </c>
-      <c r="C15">
-        <v>81.481481481481495</v>
-      </c>
-      <c r="D15" s="19"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
+      <c r="B37" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C37" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B16">
-        <v>1063.79</v>
-      </c>
-      <c r="C16">
-        <v>106.53021442495125</v>
-      </c>
-      <c r="D16" s="19"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
-        <v>11</v>
-      </c>
-      <c r="B17">
-        <v>1342.68</v>
-      </c>
-      <c r="C17">
-        <v>127.68031189083825</v>
-      </c>
-      <c r="D17" s="19"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
-        <v>12</v>
-      </c>
-      <c r="B18">
-        <v>1558.1100000000001</v>
-      </c>
-      <c r="C18">
-        <v>142.30019493177392</v>
-      </c>
-      <c r="D18" s="19"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
-        <v>13</v>
-      </c>
-      <c r="B19">
-        <v>1652.4650000000001</v>
-      </c>
-      <c r="C19">
-        <v>149.90253411306045</v>
-      </c>
-      <c r="D19" s="19"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
-        <v>14</v>
-      </c>
-      <c r="B20">
-        <v>1670</v>
-      </c>
-      <c r="C20">
-        <v>150</v>
-      </c>
-      <c r="D20" s="19"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
-        <v>15</v>
-      </c>
-      <c r="B21">
-        <v>1670</v>
-      </c>
-      <c r="C21">
-        <v>144.83430799220267</v>
-      </c>
-      <c r="D21" s="19"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="2">
-        <v>16</v>
-      </c>
-      <c r="B22">
-        <v>1670</v>
-      </c>
-      <c r="C22">
-        <v>136.1598440545809</v>
-      </c>
-      <c r="D22" s="19"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="2">
-        <v>17</v>
-      </c>
-      <c r="B23">
-        <v>1670</v>
-      </c>
-      <c r="C23">
-        <v>127.58284600389871</v>
-      </c>
-      <c r="D23" s="19"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
-        <v>18</v>
-      </c>
-      <c r="B24">
-        <v>1648.29</v>
-      </c>
-      <c r="C24">
-        <v>121.24756335282646</v>
-      </c>
-      <c r="D24" s="19"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="2">
-        <v>19</v>
-      </c>
-      <c r="B25">
-        <v>1596.52</v>
-      </c>
-      <c r="C25">
-        <v>117.44639376218325</v>
-      </c>
-      <c r="D25" s="19"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="2">
-        <v>20</v>
-      </c>
-      <c r="B26">
-        <v>1547.2549999999999</v>
-      </c>
-      <c r="C26">
-        <v>115.6920077972709</v>
-      </c>
-      <c r="D26" s="19"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="2">
-        <v>21</v>
-      </c>
-      <c r="B27">
-        <v>1498.825</v>
-      </c>
-      <c r="C27">
-        <v>115.20467836257315</v>
-      </c>
-      <c r="D27" s="19"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="2">
-        <v>22</v>
-      </c>
-      <c r="B28">
-        <v>1449.56</v>
-      </c>
-      <c r="C28">
-        <v>114.71734892787525</v>
-      </c>
-      <c r="D28" s="19"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="2">
-        <v>23</v>
-      </c>
-      <c r="B29">
-        <v>1400.2950000000001</v>
-      </c>
-      <c r="C29">
-        <v>114.52241715399616</v>
-      </c>
-      <c r="D29" s="19"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="2">
-        <v>24</v>
-      </c>
-      <c r="B30">
-        <v>1351.865</v>
-      </c>
-      <c r="C30">
-        <v>114.42495126705646</v>
-      </c>
-      <c r="D30" s="19"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="2">
-        <v>25</v>
-      </c>
-      <c r="B31">
-        <v>1302.6000000000001</v>
-      </c>
-      <c r="C31">
-        <v>114.52241715399616</v>
-      </c>
-      <c r="D31" s="19"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="2">
-        <v>26</v>
-      </c>
-      <c r="B32">
-        <v>0</v>
-      </c>
-      <c r="C32">
-        <v>0</v>
-      </c>
-      <c r="D32" s="19"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="2">
-        <v>27</v>
-      </c>
-      <c r="B33">
-        <v>0</v>
-      </c>
-      <c r="C33">
-        <v>0</v>
-      </c>
-      <c r="D33" s="19"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="2">
-        <v>28</v>
-      </c>
-      <c r="B34">
-        <v>0</v>
-      </c>
-      <c r="C34">
-        <v>0</v>
-      </c>
-      <c r="D34" s="19"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="2">
-        <v>29</v>
-      </c>
-      <c r="B35">
-        <v>0</v>
-      </c>
-      <c r="C35">
-        <v>0</v>
-      </c>
-      <c r="D35" s="19"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="9"/>
-      <c r="B36" s="9"/>
-      <c r="C36">
-        <v>0</v>
-      </c>
-      <c r="D36" s="10"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="B37" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C37" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D37" s="18" t="s">
+      <c r="D37" s="12" t="s">
         <v>12</v>
       </c>
     </row>
@@ -3841,7 +3626,7 @@
       <c r="C38">
         <v>0.7</v>
       </c>
-      <c r="D38" s="19"/>
+      <c r="D38" s="13"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
@@ -3853,7 +3638,7 @@
       <c r="C39" s="5">
         <v>1.93</v>
       </c>
-      <c r="D39" s="19"/>
+      <c r="D39" s="13"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
@@ -3865,7 +3650,7 @@
       <c r="C40" s="7">
         <v>1.6</v>
       </c>
-      <c r="D40" s="19"/>
+      <c r="D40" s="13"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
@@ -3874,7 +3659,7 @@
       <c r="B41" t="s">
         <v>7</v>
       </c>
-      <c r="D41" s="19"/>
+      <c r="D41" s="13"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
@@ -3886,7 +3671,7 @@
       <c r="C42">
         <v>0</v>
       </c>
-      <c r="D42" s="19"/>
+      <c r="D42" s="13"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
@@ -3898,7 +3683,7 @@
       <c r="C43">
         <v>0</v>
       </c>
-      <c r="D43" s="19"/>
+      <c r="D43" s="13"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
@@ -3910,7 +3695,7 @@
       <c r="C44">
         <v>0</v>
       </c>
-      <c r="D44" s="19"/>
+      <c r="D44" s="13"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
@@ -3922,7 +3707,7 @@
       <c r="C45">
         <v>0.03</v>
       </c>
-      <c r="D45" s="19"/>
+      <c r="D45" s="13"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
@@ -3934,7 +3719,7 @@
       <c r="C46">
         <v>0.06</v>
       </c>
-      <c r="D46" s="19"/>
+      <c r="D46" s="13"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
@@ -3946,7 +3731,7 @@
       <c r="C47">
         <v>0.08</v>
       </c>
-      <c r="D47" s="19"/>
+      <c r="D47" s="13"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
@@ -3958,7 +3743,7 @@
       <c r="C48">
         <v>0.13</v>
       </c>
-      <c r="D48" s="19"/>
+      <c r="D48" s="13"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
@@ -3970,7 +3755,7 @@
       <c r="C49">
         <v>0.19</v>
       </c>
-      <c r="D49" s="19"/>
+      <c r="D49" s="13"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
@@ -3982,7 +3767,7 @@
       <c r="C50">
         <v>0.26</v>
       </c>
-      <c r="D50" s="19"/>
+      <c r="D50" s="13"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
@@ -3994,7 +3779,7 @@
       <c r="C51">
         <v>0.35</v>
       </c>
-      <c r="D51" s="19"/>
+      <c r="D51" s="13"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
@@ -4006,7 +3791,7 @@
       <c r="C52">
         <v>0.46</v>
       </c>
-      <c r="D52" s="19"/>
+      <c r="D52" s="13"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
@@ -4018,7 +3803,7 @@
       <c r="C53">
         <v>0.6</v>
       </c>
-      <c r="D53" s="19"/>
+      <c r="D53" s="13"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
@@ -4030,7 +3815,7 @@
       <c r="C54">
         <v>0.7</v>
       </c>
-      <c r="D54" s="19"/>
+      <c r="D54" s="13"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
@@ -4042,7 +3827,7 @@
       <c r="C55">
         <v>0.7</v>
       </c>
-      <c r="D55" s="19"/>
+      <c r="D55" s="13"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
@@ -4054,7 +3839,7 @@
       <c r="C56">
         <v>0.7</v>
       </c>
-      <c r="D56" s="19"/>
+      <c r="D56" s="13"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
@@ -4066,7 +3851,7 @@
       <c r="C57">
         <v>0.7</v>
       </c>
-      <c r="D57" s="19"/>
+      <c r="D57" s="13"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
@@ -4078,7 +3863,7 @@
       <c r="C58">
         <v>0</v>
       </c>
-      <c r="D58" s="19"/>
+      <c r="D58" s="13"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
@@ -4090,7 +3875,7 @@
       <c r="C59">
         <v>0</v>
       </c>
-      <c r="D59" s="19"/>
+      <c r="D59" s="13"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
@@ -4102,7 +3887,7 @@
       <c r="C60">
         <v>0</v>
       </c>
-      <c r="D60" s="19"/>
+      <c r="D60" s="13"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
@@ -4114,7 +3899,7 @@
       <c r="C61">
         <v>0</v>
       </c>
-      <c r="D61" s="19"/>
+      <c r="D61" s="13"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
@@ -4126,7 +3911,7 @@
       <c r="C62">
         <v>0</v>
       </c>
-      <c r="D62" s="19"/>
+      <c r="D62" s="13"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
@@ -4138,7 +3923,7 @@
       <c r="C63">
         <v>0</v>
       </c>
-      <c r="D63" s="19"/>
+      <c r="D63" s="13"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
@@ -4150,7 +3935,7 @@
       <c r="C64">
         <v>0</v>
       </c>
-      <c r="D64" s="19"/>
+      <c r="D64" s="13"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
@@ -4162,7 +3947,7 @@
       <c r="C65">
         <v>0</v>
       </c>
-      <c r="D65" s="19"/>
+      <c r="D65" s="13"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
@@ -4174,7 +3959,7 @@
       <c r="C66">
         <v>0</v>
       </c>
-      <c r="D66" s="19"/>
+      <c r="D66" s="13"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
@@ -4186,7 +3971,7 @@
       <c r="C67">
         <v>0</v>
       </c>
-      <c r="D67" s="19"/>
+      <c r="D67" s="13"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
@@ -4198,7 +3983,7 @@
       <c r="C68">
         <v>0</v>
       </c>
-      <c r="D68" s="19"/>
+      <c r="D68" s="13"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
@@ -4210,7 +3995,7 @@
       <c r="C69">
         <v>0</v>
       </c>
-      <c r="D69" s="19"/>
+      <c r="D69" s="13"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
@@ -4222,7 +4007,7 @@
       <c r="C70">
         <v>0</v>
       </c>
-      <c r="D70" s="19"/>
+      <c r="D70" s="13"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
@@ -4234,7 +4019,7 @@
       <c r="C71">
         <v>0</v>
       </c>
-      <c r="D71" s="19"/>
+      <c r="D71" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Code/Inputs/Power_curve.xlsx
+++ b/Code/Inputs/Power_curve.xlsx
@@ -4026,4 +4026,264 @@
   <pageSetup paperSize="9" scale="42" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100241E96938535DD4B921FCDFB54345D30" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="05402b1cd15976f9094c5ba333fd6182">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="5d44ae6a-e145-4c9d-94e7-ddf9cc58067e" xmlns:ns3="e67e9a88-35e1-4b39-8da9-a609eb308282" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d2f5521d18ec7b914056a63e79c5547c" ns2:_="" ns3:_="">
+    <xsd:import namespace="5d44ae6a-e145-4c9d-94e7-ddf9cc58067e"/>
+    <xsd:import namespace="e67e9a88-35e1-4b39-8da9-a609eb308282"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="5d44ae6a-e145-4c9d-94e7-ddf9cc58067e" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="10" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="11" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="12" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="13" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="14" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="15" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="16" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceLocation" ma:index="17" nillable="true" ma:displayName="Location" ma:internalName="MediaServiceLocation" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="20" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="22" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="62691f12-1220-44b1-ba48-e77f64da2991" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="e67e9a88-35e1-4b39-8da9-a609eb308282" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="18" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="19" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="TaxCatchAll" ma:index="23" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{cfe7f1f2-b186-4eae-b9db-3e53485d6587}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="e67e9a88-35e1-4b39-8da9-a609eb308282">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{16B2AAC3-E45B-4835-BF9E-3D0B39FD0D6D}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{146ABF84-944C-46FD-83F5-A0FDA51CB8EC}"/>
 </file>